--- a/USTC/支出表.xlsx
+++ b/USTC/支出表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,58 @@
   </si>
   <si>
     <t>操作系统——精髓与设计原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐芳华餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏凌波，女。信安大三课，只有我一个外院的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张举勇。“会c就会matlab”，“对！”，上课一直在折腾自己的macbook。萌新一枚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰马老师跳票到了二周上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健美课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞一个，学了不少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芳华餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芳华餐厅，实在是渴死我了，买了一杯饮料，感觉糖水的味道，不是很好喝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,74 +218,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -253,7 +237,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -542,17 +526,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.9140625" customWidth="1"/>
     <col min="2" max="2" width="26.4140625" customWidth="1"/>
-    <col min="4" max="4" width="43.6640625" customWidth="1"/>
+    <col min="4" max="4" width="91.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -637,8 +621,65 @@
         <v>19</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>42612</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/USTC/支出表.xlsx
+++ b/USTC/支出表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,46 @@
   </si>
   <si>
     <t>芳华餐厅，实在是渴死我了，买了一杯饮料，感觉糖水的味道，不是很好喝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早饭：面包+牛奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E6.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡到了9点半，然后去网教发邮件了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芳华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑启龙的课太水：“同学你为什么走了，是有课吗？”“老师你讲得很好，我明年再来”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张昱的课太深，“老师这门课上机几次？”“不，我们不上机，我们只收密钥”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矽谷五花肉饭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,6 +258,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -237,7 +345,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -526,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -677,6 +785,52 @@
         <v>33</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>42613</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/USTC/支出表.xlsx
+++ b/USTC/支出表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,82 @@
   </si>
   <si>
     <t>张昱的课太深，“老师这门课上机几次？”“不，我们不上机，我们只收密钥”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矽谷五花肉饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生好像去东区听讲话了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗澡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有热水，洗了冷水澡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肚子很疼，再也不洗冷水澡了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一卡通充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小钱包充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书已经买完啦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去读者服务部买编译原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写了Python程序下载形势与政策的视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芳华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午睡觉4：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续写，不过发现无法批量下载，wlt做了限制，还不会弄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -258,74 +334,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -345,7 +353,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -634,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -799,7 +807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>37</v>
       </c>
@@ -807,7 +815,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -815,7 +823,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -823,12 +831,100 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>42</v>
       </c>
       <c r="D20" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>42614</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/USTC/支出表.xlsx
+++ b/USTC/支出表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,6 +275,30 @@
   </si>
   <si>
     <t>矽谷五花肉饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊到货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译原理，￥38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上看电影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影票￥39.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买了一杯柳橙雪梨汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陪朋友一起买的，￥21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -927,6 +951,33 @@
         <v>62</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>42615</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/USTC/支出表.xlsx
+++ b/USTC/支出表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,6 +299,38 @@
   </si>
   <si>
     <t>陪朋友一起买的，￥21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一盒牛奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一卡通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上出门去在中区丢了一卡通，下午3点半左右同学告诉我在宿管那里。图书馆的一卡通补卡机不能用。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同学的一卡通￥11.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写完了作业，感觉很有意思，但是自己套路还是太浅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -962,7 +994,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>65</v>
       </c>
@@ -970,12 +1002,52 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>67</v>
       </c>
       <c r="D34" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>42616</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>42617</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
